--- a/va_facility_data_2025-02-20/Minneapolis VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Minneapolis%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Minneapolis VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Minneapolis%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Re213c5d4374d47a68baf725462080273"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R6c18f135d71341dca3cf7094ec94b34e"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re689973a3cd845d2ad0e6e30edc134d2"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Re6ab48a3318043558bf7312ae85ee000"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R668a41ff93a54baa966a6b81532904cc"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3416ae5651f646edb88f982cb9adf3d5"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R765ad21c7c04460bb22de1bbeea90839"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R63a08b93ac254b3bac6a21c265dacf5a"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rbf47e262bf3b41eb87a84e03ac8e7807"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R62ad77603a2e4742a464e2e9c5a5c5c2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R17eb43a5e68949878a742d250c96698e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R13ead95ad7964c87b01c9b64ad460ab4"/>
   </x:sheets>
 </x:workbook>
 </file>
